--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10310\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10310\Desktop\General Physics 2 - Ex 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,20 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AC12V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,19 +113,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
+    <t>mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,8 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -198,18 +191,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -529,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" activeCellId="5" sqref="B2 B3 D2 D3 G2 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,40 +541,56 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>3.75</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <f>B1/2000</f>
         <v>4.15E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <f>B2/1000-D2</f>
+        <v>-4.0000000000000018E-4</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F2/D2</f>
+        <v>-9.6385542168674745E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1.9</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <f>D2/2</f>
         <v>2.075E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <f>B3/1000-D3</f>
+        <v>-1.7500000000000003E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3/D3</f>
+        <v>-8.4337349397590369E-2</v>
       </c>
     </row>
   </sheetData>
@@ -590,15 +602,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,9 +618,9 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4.0999999999999996</v>
@@ -617,10 +629,14 @@
         <f>B1/2</f>
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <f>(C2-B2)/C2</f>
+        <v>1.2048192771084508E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -628,6 +644,10 @@
       <c r="C3">
         <f>B1/4</f>
         <v>2.0750000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <f>(C3-B3)/C3</f>
+        <v>3.6144578313253094E-2</v>
       </c>
     </row>
   </sheetData>
@@ -638,39 +658,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>6.1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <f>(B1-C1)/C1</f>
+        <v>1.6666666666666607E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -681,33 +708,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <v>950</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <f>1/(1/2+1/2)</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>C1*1000-B1</f>
+        <v>50</v>
+      </c>
+      <c r="E1" s="1">
+        <f>D1/C1/1000</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>650</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>1/(1/3+1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <f>C2*1000-B2</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <f>100/750</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -731,7 +782,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -742,38 +793,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>1.1000000000000001</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1">
         <f>1/(1/2+1/4)</f>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <f>(1.3-1.1)/1.3</f>
+        <v>0.1538461538461538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>4.9000000000000004</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +845,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -810,121 +865,121 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
         <f>2.1/2</f>
         <v>1.05</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <f>6.545/2</f>
         <v>3.2725</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <f>12.6/2</f>
         <v>6.3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <f>19.2/2</f>
         <v>9.6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1">
         <f>(B2-B1)/B1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>(C2-C1)/C1</f>
         <v>9.0833333333333321E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>(D2-D1)/D1</f>
         <v>4.9999999999999968E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>(E2-E1)/E1</f>
         <v>6.6666666666666624E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
         <f>2.1/2</f>
         <v>1.05</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f>6.545/2</f>
         <v>3.2725</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <f>12.6/2</f>
         <v>6.3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f>19.2/2</f>
         <v>9.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1">
         <f>(B4-B1)/B1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>(C4-C1)/C1</f>
         <v>9.0833333333333321E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>(D4-D1)/D1</f>
         <v>4.9999999999999968E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>(E4-E1)/E1</f>
         <v>6.6666666666666624E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
         <f>2.1/2</f>
         <v>1.05</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f>6.545/2</f>
         <v>3.2725</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f>12.6/2</f>
         <v>6.3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <f>19.2/2</f>
         <v>9.6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
         <f>(B6-B1)/B1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>(C6-C1)/C1</f>
         <v>9.0833333333333321E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>(D6-D1)/D1</f>
         <v>4.9999999999999968E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>(E6-E1)/E1</f>
         <v>6.6666666666666624E-2</v>
       </c>
@@ -949,7 +1004,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -958,91 +1013,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>10000</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>100000</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>1000000</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
         <v>10000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>100000</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
         <v>10000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>100000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
         <v>10000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>100000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
